--- a/static/excel/FromPython.xlsx
+++ b/static/excel/FromPython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -22,61 +22,94 @@
     <t>Product</t>
   </si>
   <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Tel</t>
-  </si>
-  <si>
-    <t>displayName</t>
-  </si>
-  <si>
-    <t>Email(Permisstion)</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>EmailLiff</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Picture</t>
   </si>
   <si>
-    <t>วัชรพล วีระบริรักษ์</t>
-  </si>
-  <si>
-    <t>เคน</t>
-  </si>
-  <si>
-    <t>RealEstate</t>
+    <t>วัชรพล</t>
+  </si>
+  <si>
+    <t>Mr.Yolo</t>
   </si>
   <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>gg@uush</t>
-  </si>
-  <si>
-    <t>94846466</t>
-  </si>
-  <si>
-    <t>54278</t>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>066757552</t>
+  </si>
+  <si>
+    <t>0698433218</t>
+  </si>
+  <si>
+    <t>kan@jo.com</t>
+  </si>
+  <si>
+    <t>google@g.com</t>
+  </si>
+  <si>
+    <t>wera.watcharapon@gmail.com</t>
+  </si>
+  <si>
+    <t>tamsudsuay@hotmail.com</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Kane</t>
   </si>
   <si>
-    <t>wera.watcharapon@gmail.com</t>
+    <t>🐶</t>
+  </si>
+  <si>
+    <t>29-10-2020</t>
+  </si>
+  <si>
+    <t>2-11-2020</t>
+  </si>
+  <si>
+    <t>17:35:12</t>
+  </si>
+  <si>
+    <t>22:15:35</t>
   </si>
   <si>
     <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hQO_EpGbjDmBiPCcidn5xN155AA0VEggoGlwUDkE6UlBLX0FlWQ1FARRpUFMdCRtkXlhDUUBpVFZO</t>
   </si>
 </sst>
 </file>
@@ -447,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,81 +517,90 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
         <v>22</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>2020</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/FromPython.xlsx
+++ b/static/excel/FromPython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -49,67 +49,52 @@
     <t>Picture</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ImportDate/Time</t>
+  </si>
+  <si>
+    <t>ImportEmail</t>
+  </si>
+  <si>
     <t>วัชรพล</t>
   </si>
   <si>
-    <t>Mr.Yolo</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>066757552</t>
-  </si>
-  <si>
-    <t>0698433218</t>
-  </si>
-  <si>
-    <t>kan@jo.com</t>
-  </si>
-  <si>
-    <t>google@g.com</t>
+    <t>RealEstate</t>
+  </si>
+  <si>
+    <t>แมงโก้</t>
+  </si>
+  <si>
+    <t>0656791749</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
   </si>
   <si>
     <t>wera.watcharapon@gmail.com</t>
   </si>
   <si>
-    <t>tamsudsuay@hotmail.com</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Kane</t>
   </si>
   <si>
-    <t>🐶</t>
-  </si>
-  <si>
-    <t>29-10-2020</t>
-  </si>
-  <si>
-    <t>2-11-2020</t>
-  </si>
-  <si>
-    <t>17:35:12</t>
-  </si>
-  <si>
-    <t>22:15:35</t>
+    <t>4-11-2020</t>
+  </si>
+  <si>
+    <t>13:18:13</t>
   </si>
   <si>
     <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
   </si>
   <si>
-    <t>https://profile.line-scdn.net/0hQO_EpGbjDmBiPCcidn5xN155AA0VEggoGlwUDkE6UlBLX0FlWQ1FARRpUFMdCRtkXlhDUUBpVFZO</t>
+    <t>4-11-2020 13:18:31</t>
+  </si>
+  <si>
+    <t>s5919410022@sau.ac.th</t>
   </si>
 </sst>
 </file>
@@ -480,13 +465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,87 +505,66 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/FromPython.xlsx
+++ b/static/excel/FromPython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -52,49 +52,300 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>ImportDate/Time</t>
   </si>
   <si>
-    <t>ImportEmail</t>
-  </si>
-  <si>
-    <t>วัชรพล</t>
+    <t>Piyanan onnork</t>
+  </si>
+  <si>
+    <t>ฐิติพัฒน์ ชัยแก้ว</t>
+  </si>
+  <si>
+    <t>Rungravee</t>
+  </si>
+  <si>
+    <t>อรณา</t>
+  </si>
+  <si>
+    <t>อัสมา บุญเต็ม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raksheeth </t>
+  </si>
+  <si>
+    <t>เจริญชัย</t>
+  </si>
+  <si>
+    <t>จักรพันธ์</t>
+  </si>
+  <si>
+    <t>Somkiat</t>
+  </si>
+  <si>
+    <t>ชุมพล สังขปรีชา</t>
   </si>
   <si>
     <t>RealEstate</t>
   </si>
   <si>
-    <t>แมงโก้</t>
-  </si>
-  <si>
-    <t>0656791749</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>wera.watcharapon@gmail.com</t>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Anasara development</t>
+  </si>
+  <si>
+    <t>Auto Transfer Service</t>
+  </si>
+  <si>
+    <t>Vn.stell</t>
+  </si>
+  <si>
+    <t>บ.โขคอนันต์53</t>
+  </si>
+  <si>
+    <t>Nimble suply and service co.,ltd</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growcons </t>
+  </si>
+  <si>
+    <t>กำลังจัดตั้ง</t>
+  </si>
+  <si>
+    <t>Pratommin</t>
+  </si>
+  <si>
+    <t>อินเด็กซ์ อินเตอร์เนชั่นแนล กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>0985858221</t>
+  </si>
+  <si>
+    <t>0869129962</t>
+  </si>
+  <si>
+    <t>0874586669</t>
+  </si>
+  <si>
+    <t>0918719362</t>
+  </si>
+  <si>
+    <t>0632711038</t>
+  </si>
+  <si>
+    <t>0918847790</t>
+  </si>
+  <si>
+    <t>0895164594</t>
+  </si>
+  <si>
+    <t>0858216555</t>
+  </si>
+  <si>
+    <t>0866266375</t>
+  </si>
+  <si>
+    <t>0911648142</t>
+  </si>
+  <si>
+    <t>asr.officework@gmail.com</t>
+  </si>
+  <si>
+    <t>thitiphat.eng@gmail.com</t>
+  </si>
+  <si>
+    <t>fonzf16@gmail.com</t>
+  </si>
+  <si>
+    <t>orana359@hotmail.com</t>
+  </si>
+  <si>
+    <t>assama82@gmail.com</t>
+  </si>
+  <si>
+    <t>raksheeth555@gmail.com</t>
+  </si>
+  <si>
+    <t>ridtirud@gmail.com</t>
+  </si>
+  <si>
+    <t>bjakkapun@gmail.com</t>
+  </si>
+  <si>
+    <t>pratomminsomkiat@gmail.com</t>
+  </si>
+  <si>
+    <t>chumpol@index.co.th</t>
+  </si>
+  <si>
+    <t>koyotyboy1@gmail.com</t>
+  </si>
+  <si>
+    <t>garfield00536@hotmail.com</t>
+  </si>
+  <si>
+    <t>orana1424@gmail.com</t>
+  </si>
+  <si>
+    <t>ridbetta@gmail.com</t>
+  </si>
+  <si>
+    <t>sk@somkiatsafety.in.th</t>
+  </si>
+  <si>
+    <t>oatgewin@gmail.com</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>4-11-2020</t>
-  </si>
-  <si>
-    <t>13:18:13</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
-  </si>
-  <si>
-    <t>4-11-2020 13:18:31</t>
-  </si>
-  <si>
-    <t>s5919410022@sau.ac.th</t>
+    <t>Ceo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asst.marketing manager
+บริษัททำ FA, LPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning and cost control </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ก่อสร้างบ้าน</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>ตำแหน่ง assistant CEO : Business Development
+บูทข้างๆ</t>
+  </si>
+  <si>
+    <t>Koy_Anasara</t>
+  </si>
+  <si>
+    <t>David Philva</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>ตรีวิท</t>
+  </si>
+  <si>
+    <t>Assama Boontem</t>
+  </si>
+  <si>
+    <t>N. Raksheeth</t>
+  </si>
+  <si>
+    <t>เจริญชัย ฤทธิรุทธ🐎8</t>
+  </si>
+  <si>
+    <t>Chakkaphan B.</t>
+  </si>
+  <si>
+    <t>Somkiat (Tony)</t>
+  </si>
+  <si>
+    <t>MG O Sup</t>
+  </si>
+  <si>
+    <t>5-11-2020</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>9:48:8</t>
+  </si>
+  <si>
+    <t>14:21:55</t>
+  </si>
+  <si>
+    <t>2:30:59</t>
+  </si>
+  <si>
+    <t>16:43:58</t>
+  </si>
+  <si>
+    <t>13:6:27</t>
+  </si>
+  <si>
+    <t>11:16:57</t>
+  </si>
+  <si>
+    <t>11:37:19</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hnl90FN77MUMESRh7fupOFDgMPy5zZzcLfCt5ciEZOCd9e3YQaid7InJKZyN6KXRBPXp9dSFPaXN6</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h82Bp0NEsZx1_CUw7KgQYSkNMaXAIJ2FVB2YqKVleMHgGaXJKQTwvLgkMOCUCMHRJQG9_eF9dMS9X</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0htks5EQzpK0ROTAKghltUE3IJJSk5Yi0MNi8zdWxKfXdnf20SdyM2IThIISRnemUWcShid2wZcXwz</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hilFXdmZONkN7IRrZX2hJFEdkOC4MDzALAxMucQtxPyQFEncQQBJ5LQwjaXZREiQTExR9I1okPHFQ</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hV6AIt4J5CRl8MCBaYOB2TkB1B3QLHg9RBFEVfl82AH1VBxlHQ1EWdwtkUC9SAR5JFF9OLVAxX3xT</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hSByirDrxDG1EECULuQhzOnhVAgAzPgolPHBKCTQWAVVuI09pLSQRAjIWAlppc0g_KHIQCTFHUFhs</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h4pgK2tBta19aMkZoRpwUCGZ3ZTItHG0XIgAmbn1nN292UClaZQYlPn8xM2h-AiQNb1EhbS1gM2Z0</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0m0e7b86dd725152dfe10d516761369e37e86078a5ddcc</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hZjTQMseuBUVpKCwok4V6ElVtCygeBgMNER4acx56XCdHGUUXXElJJBt6XXVNHkJAVRkaIhh_UnJM</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hY-LRz864BgJxKy8RHuJ5VU1uCG8GBQBKCUgZYFB8XDRVSRYGRExBZgN7XWJZSUNSRBgbZFQiDWcP</t>
+  </si>
+  <si>
+    <t>tongta</t>
+  </si>
+  <si>
+    <t>MG : AmitA</t>
+  </si>
+  <si>
+    <t>['CH010', 'CK010', 'CN010', 'CD010', 'RC010', 'RA010', 'RB010']</t>
+  </si>
+  <si>
+    <t>['CJ010']</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>5-11-2020 9:54:16</t>
+  </si>
+  <si>
+    <t>5-11-2020 14:38:35</t>
+  </si>
+  <si>
+    <t>6-11-2020 10:0:31</t>
+  </si>
+  <si>
+    <t>12-11-2020 9:17:8</t>
   </si>
 </sst>
 </file>
@@ -465,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,48 +774,480 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/FromPython.xlsx
+++ b/static/excel/FromPython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,87 @@
     <t>ชุมพล สังขปรีชา</t>
   </si>
   <si>
+    <t>Supakorn Sowcharoensuk</t>
+  </si>
+  <si>
+    <t>ปฐมพงศ์ จันทร์พัฒนกุล</t>
+  </si>
+  <si>
+    <t>นายบุญชนะ แป้นศรี</t>
+  </si>
+  <si>
+    <t>Chaiwat Jirawijakkhana</t>
+  </si>
+  <si>
+    <t>worawit</t>
+  </si>
+  <si>
+    <t>รติรัตน์ กิตติปัญญาพัฒน์</t>
+  </si>
+  <si>
+    <t>แทนกาย วิศรุตภัทรพงศา</t>
+  </si>
+  <si>
+    <t>ชุมพล</t>
+  </si>
+  <si>
+    <t>Manod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชำนาญ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komol </t>
+  </si>
+  <si>
+    <t>อาจ ศรีสัจจา</t>
+  </si>
+  <si>
+    <t>สุลิตตา ใจเอื้อ</t>
+  </si>
+  <si>
+    <t>จิรวัฒน์ ศรีสันต์</t>
+  </si>
+  <si>
+    <t>thanawat</t>
+  </si>
+  <si>
+    <t>คมพันธ์ จินดาวัฒน์</t>
+  </si>
+  <si>
+    <t>กฤษณะ สารานิกรณ์</t>
+  </si>
+  <si>
+    <t>รณชัย ศิริธนารัตนกุล</t>
+  </si>
+  <si>
+    <t>ธีรพงษ์ โชติวรรณพฤกษ์</t>
+  </si>
+  <si>
+    <t>สดุดดี  มะลิซ้อน</t>
+  </si>
+  <si>
+    <t>วลีรัตน์ ตันติคชาภรณ์</t>
+  </si>
+  <si>
+    <t>จินตนา เต็มเปี่ยมวัชโรทัย</t>
+  </si>
+  <si>
+    <t>Thaninrath Metheewatchararat</t>
+  </si>
+  <si>
+    <t>ณัชภัทร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodchakorn tadsanasarid </t>
+  </si>
+  <si>
+    <t>อรรถนนท์ รัตนศรีศุภกานต์</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>RealEstate</t>
   </si>
   <si>
@@ -130,6 +211,87 @@
     <t>อินเด็กซ์ อินเตอร์เนชั่นแนล กรุ๊ป จำกัด (มหาชน)</t>
   </si>
   <si>
+    <t>Sowsoonheng</t>
+  </si>
+  <si>
+    <t>สำนักการโยธา กทม.</t>
+  </si>
+  <si>
+    <t>กฟผ</t>
+  </si>
+  <si>
+    <t>SCG CPAC</t>
+  </si>
+  <si>
+    <t>Arnoma Grand Bangkok</t>
+  </si>
+  <si>
+    <t>อาจารย์ มศว</t>
+  </si>
+  <si>
+    <t>อาศาซีวิลคอนสตรัคชั่น</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Pro-En</t>
+  </si>
+  <si>
+    <t>Cscon</t>
+  </si>
+  <si>
+    <t>กองแบบแผน กรมสนับสนุนบริการสุขภาพกระทรวงสาธารณสุข</t>
+  </si>
+  <si>
+    <t>ส่วนตัว</t>
+  </si>
+  <si>
+    <t>บริษัทนิวเทคโนโลยี่</t>
+  </si>
+  <si>
+    <t>จิรวิศวกรรม</t>
+  </si>
+  <si>
+    <t>daikin</t>
+  </si>
+  <si>
+    <t>ปตท. จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>กรมชลประทาน</t>
+  </si>
+  <si>
+    <t>International profect administration company limited</t>
+  </si>
+  <si>
+    <t>CPAC Construction Solution</t>
+  </si>
+  <si>
+    <t>บริษัท เมก้า แพลนเน็ต จำกัด</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>DD Thai Distribution co,Ltd.</t>
+  </si>
+  <si>
+    <t>Dorsch</t>
+  </si>
+  <si>
+    <t>ขุนพล Construction</t>
+  </si>
+  <si>
+    <t>บ.หงไท่กรุ๊ป จำกัด</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
     <t>0985858221</t>
   </si>
   <si>
@@ -160,6 +322,84 @@
     <t>0911648142</t>
   </si>
   <si>
+    <t>0896699563</t>
+  </si>
+  <si>
+    <t>0867757371</t>
+  </si>
+  <si>
+    <t>0939456191</t>
+  </si>
+  <si>
+    <t>0641828693</t>
+  </si>
+  <si>
+    <t>0894065019</t>
+  </si>
+  <si>
+    <t>0946282356</t>
+  </si>
+  <si>
+    <t>0957811876</t>
+  </si>
+  <si>
+    <t>026816669</t>
+  </si>
+  <si>
+    <t>0819443812</t>
+  </si>
+  <si>
+    <t>0619422959</t>
+  </si>
+  <si>
+    <t>0816271539</t>
+  </si>
+  <si>
+    <t>0863043387</t>
+  </si>
+  <si>
+    <t>0817832091</t>
+  </si>
+  <si>
+    <t>0988301355</t>
+  </si>
+  <si>
+    <t>0917877564</t>
+  </si>
+  <si>
+    <t>0851362719</t>
+  </si>
+  <si>
+    <t>0816429936</t>
+  </si>
+  <si>
+    <t>0892056850</t>
+  </si>
+  <si>
+    <t>0905059135</t>
+  </si>
+  <si>
+    <t>0991324549</t>
+  </si>
+  <si>
+    <t>0879092627</t>
+  </si>
+  <si>
+    <t>0538799897</t>
+  </si>
+  <si>
+    <t>0894893877</t>
+  </si>
+  <si>
+    <t>0812479688</t>
+  </si>
+  <si>
+    <t>0965964459</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>asr.officework@gmail.com</t>
   </si>
   <si>
@@ -190,6 +430,81 @@
     <t>chumpol@index.co.th</t>
   </si>
   <si>
+    <t>sowsupakorn751@gmail.com</t>
+  </si>
+  <si>
+    <t>firstmanu555@gmail.com</t>
+  </si>
+  <si>
+    <t>bunchana.p@gmsil.com</t>
+  </si>
+  <si>
+    <t>chaiwjir@scg.com</t>
+  </si>
+  <si>
+    <t>worawit@arnoma.com</t>
+  </si>
+  <si>
+    <t>thmitmanee@gmail.com</t>
+  </si>
+  <si>
+    <t>tantawan299@gmail.com</t>
+  </si>
+  <si>
+    <t>cscon.d89@gmail.com</t>
+  </si>
+  <si>
+    <t>komol.civil@gmail.com</t>
+  </si>
+  <si>
+    <t>arjs82@gmail.com</t>
+  </si>
+  <si>
+    <t>sulitta@ntec.co.th</t>
+  </si>
+  <si>
+    <t>cadthai2006@hotmail.com</t>
+  </si>
+  <si>
+    <t>thanawat_n@daikin.co.th</t>
+  </si>
+  <si>
+    <t>kompunt.j@pttplc.com</t>
+  </si>
+  <si>
+    <t>111waterwater@gmail.com</t>
+  </si>
+  <si>
+    <t>rochai@interpac.co.th</t>
+  </si>
+  <si>
+    <t>teerapoc@scg.com</t>
+  </si>
+  <si>
+    <t>it.helpdesk@megaplanet.co.th</t>
+  </si>
+  <si>
+    <t>waleerattrana@gmail.com</t>
+  </si>
+  <si>
+    <t>jintana.t@thaimp.co.th</t>
+  </si>
+  <si>
+    <t>thaninrath.m@gmail.com</t>
+  </si>
+  <si>
+    <t>Natchpat_p@hotmail.com</t>
+  </si>
+  <si>
+    <t>kodchakorn.official@gmail.com</t>
+  </si>
+  <si>
+    <t>jack.attanon99@gmail.com</t>
+  </si>
+  <si>
+    <t>g@g.com</t>
+  </si>
+  <si>
     <t>koyotyboy1@gmail.com</t>
   </si>
   <si>
@@ -208,7 +523,61 @@
     <t>oatgewin@gmail.com</t>
   </si>
   <si>
-    <t>None</t>
+    <t>first-manu-555@hotmail.com</t>
+  </si>
+  <si>
+    <t>bunchana_pansri@hotmail.com</t>
+  </si>
+  <si>
+    <t>maxchaii2@gmail.com</t>
+  </si>
+  <si>
+    <t>worawitbu@hotmail.com</t>
+  </si>
+  <si>
+    <t>ratirat6539@gmail.com</t>
+  </si>
+  <si>
+    <t>sangkha888@gmail.com</t>
+  </si>
+  <si>
+    <t>mandm.1691@yahoo.com</t>
+  </si>
+  <si>
+    <t>chamnans14@gmail.com</t>
+  </si>
+  <si>
+    <t>numanit33@gmail.com</t>
+  </si>
+  <si>
+    <t>toeynakabb@hotmail.com</t>
+  </si>
+  <si>
+    <t>whalewhitepp@gmail.com</t>
+  </si>
+  <si>
+    <t>min_kira@hotmail.com</t>
+  </si>
+  <si>
+    <t>teerapocja@gmail.com</t>
+  </si>
+  <si>
+    <t>superball192@gmail.com</t>
+  </si>
+  <si>
+    <t>tempiam079@gmail.com</t>
+  </si>
+  <si>
+    <t>ddvctxefull@gmail.com</t>
+  </si>
+  <si>
+    <t>boy212_car@hotmail.com</t>
+  </si>
+  <si>
+    <t>raisines2536@hotmail.com</t>
+  </si>
+  <si>
+    <t>g@c.com</t>
   </si>
   <si>
     <t>Ceo</t>
@@ -231,6 +600,72 @@
 บูทข้างๆ</t>
   </si>
   <si>
+    <t>M&amp;E Engineering for Building</t>
+  </si>
+  <si>
+    <t>เป็นอาจารย์มีญาติโรงงานผลิตหินแกรนนิต</t>
+  </si>
+  <si>
+    <t>เพื่อนทำอสังหา</t>
+  </si>
+  <si>
+    <t>บันทึกข้อมูลแล้วเมื่อวาน</t>
+  </si>
+  <si>
+    <t>Design consultant</t>
+  </si>
+  <si>
+    <t>Construction &amp;realate
+MD.</t>
+  </si>
+  <si>
+    <t>อยากให้ demo</t>
+  </si>
+  <si>
+    <t>รับเหมาแอร์</t>
+  </si>
+  <si>
+    <t>เป็นลูกค้า mango</t>
+  </si>
+  <si>
+    <t>บริหารงานก่อสร้าง/งานขาย บ้านเดี่ยว ตำแหน่ง วิศวกรโครงการ</t>
+  </si>
+  <si>
+    <t>air conditiining</t>
+  </si>
+  <si>
+    <t>มาหาข้อมูล เพื่อนทำอสังหา</t>
+  </si>
+  <si>
+    <t>Solution ในงานก่อสร้าง (ออกแบบ + ก่อสร้าง) 
+ตำแหน่ง Engineering Design Director</t>
+  </si>
+  <si>
+    <t>ตอนนี้ใช้ formula จะเอาไปเสนอเผื่อเปลี่ยนโปรแกรม
+เป็น it เคยใช้ที่ฑีฆา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สนใจทั้ง con,re, planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรรมการบริหาร
+สนใจเพิ่ม Project planing
+Realestate
+</t>
+  </si>
+  <si>
+    <t>ข้อมูลด้านการวางแผนงาน</t>
+  </si>
+  <si>
+    <t>ผรม.พึ่งเปิดรับงานทุกอย่าง</t>
+  </si>
+  <si>
+    <t>ทำเกี่ยวกับสร้างและขาย อยากทราบรายละเอียดโปรแกรม /กรรมการผู้จัดการ</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
     <t>Koy_Anasara</t>
   </si>
   <si>
@@ -261,6 +696,81 @@
     <t>MG O Sup</t>
   </si>
   <si>
+    <t>Supakorn KNE26</t>
+  </si>
+  <si>
+    <t>~&lt;&lt; FiRST &gt;&gt;~</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>worawit 0894065019</t>
+  </si>
+  <si>
+    <t>Ratirat</t>
+  </si>
+  <si>
+    <t>แทนกาย</t>
+  </si>
+  <si>
+    <t>chumpol</t>
+  </si>
+  <si>
+    <t>ManothAsa</t>
+  </si>
+  <si>
+    <t>chamnan</t>
+  </si>
+  <si>
+    <t>Komol TheKop&amp;L.F.C.</t>
+  </si>
+  <si>
+    <t>Ch.Sulitta (โอ๋34)</t>
+  </si>
+  <si>
+    <t>TOMMY</t>
+  </si>
+  <si>
+    <t>Thanawat  Goff</t>
+  </si>
+  <si>
+    <t>Toey - Kompunt</t>
+  </si>
+  <si>
+    <t>Oat   Oat</t>
+  </si>
+  <si>
+    <t>&lt;Min”🍀🐳</t>
+  </si>
+  <si>
+    <t>PongTeerapong</t>
+  </si>
+  <si>
+    <t>kav@it</t>
+  </si>
+  <si>
+    <t>🎶✨Magickey💸6💵3💴9💶5💷💎</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>ddvctxefull</t>
+  </si>
+  <si>
+    <t>Boykuma: Meyer Young</t>
+  </si>
+  <si>
+    <t>🦋 GRACE  ' '</t>
+  </si>
+  <si>
+    <t>โค๊ชแจ๊ค</t>
+  </si>
+  <si>
     <t>5-11-2020</t>
   </si>
   <si>
@@ -270,6 +780,15 @@
     <t>11-11-2020</t>
   </si>
   <si>
+    <t>12-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>17-11-2020</t>
+  </si>
+  <si>
     <t>9:48:8</t>
   </si>
   <si>
@@ -291,6 +810,78 @@
     <t>11:37:19</t>
   </si>
   <si>
+    <t>13:35:31</t>
+  </si>
+  <si>
+    <t>13:14:47</t>
+  </si>
+  <si>
+    <t>11:44:40</t>
+  </si>
+  <si>
+    <t>11:24:2</t>
+  </si>
+  <si>
+    <t>10:42:42</t>
+  </si>
+  <si>
+    <t>10:18:27</t>
+  </si>
+  <si>
+    <t>9:54:19</t>
+  </si>
+  <si>
+    <t>13:57:50</t>
+  </si>
+  <si>
+    <t>12:31:25</t>
+  </si>
+  <si>
+    <t>12:9:1</t>
+  </si>
+  <si>
+    <t>11:23:24</t>
+  </si>
+  <si>
+    <t>10:53:0</t>
+  </si>
+  <si>
+    <t>10:32:12</t>
+  </si>
+  <si>
+    <t>8:53:6</t>
+  </si>
+  <si>
+    <t>14:3:51</t>
+  </si>
+  <si>
+    <t>13:43:16</t>
+  </si>
+  <si>
+    <t>16:1:59</t>
+  </si>
+  <si>
+    <t>15:50:31</t>
+  </si>
+  <si>
+    <t>15:42:50</t>
+  </si>
+  <si>
+    <t>15:42:49</t>
+  </si>
+  <si>
+    <t>14:57:1</t>
+  </si>
+  <si>
+    <t>15:12:4</t>
+  </si>
+  <si>
+    <t>14:51:41</t>
+  </si>
+  <si>
+    <t>9:18:12</t>
+  </si>
+  <si>
     <t>https://profile.line-scdn.net/0hnl90FN77MUMESRh7fupOFDgMPy5zZzcLfCt5ciEZOCd9e3YQaid7InJKZyN6KXRBPXp9dSFPaXN6</t>
   </si>
   <si>
@@ -321,21 +912,108 @@
     <t>https://profile.line-scdn.net/0hY-LRz864BgJxKy8RHuJ5VU1uCG8GBQBKCUgZYFB8XDRVSRYGRExBZgN7XWJZSUNSRBgbZFQiDWcP</t>
   </si>
   <si>
+    <t>https://profile.line-scdn.net/0hMT1-9s6tEnsMVD8S2BRtLDARHBZ7ehQzdGBdGnkHHBhybAF5NDtUHS0HTxwkNwJ6NWZYSH4BS0sh</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hYeJzhVWdBkp3Ay69HBR5HUtGCCcALQACDzJAe1RXXH8PMUIcSzdKe1pWCn5ZMkIYTTBLK1ECUCpc</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h0--pNXLKbwIQCUdV_DcQVSxMYW9nJ2lKaDsgMTIAYTtoPStTLmYjNzwJMGU1PSxSJWsoNjQINGFo</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hZQYAw50-BX5kOC3Wqjd6KVh9CxMTFgM2HFsdTEgxDEoeDBEpXQxOGEkwCU5KD0V7CgwZGkI8Ux1L</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0m0211996972511a91df6fdbbdcea4fda7375914d41891</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hNust3QnSEVpODTsRQpxuDXJIHzc5IxcSNmgOPG8OTG8xbwJcc2wKb2tfSzg2PFMEdmJdO2oETW1n</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hkw-DZ-n8NFgQPR2k1XNLDyx4OjVnEzIQaFh5azZtPmtvWSYJLFopbTU6bWppBSEOJVp9PTI1b25p</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hc5e0Xzu2PBpYSRM-7V1DTWQMMncvZzpSICsgKHlKanhxKXxMMS9xdXQaYCIlfSgbNHpxLy4Zay12</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h9aWNxHalZk5qN01AUiEZGVZyaCMdGWAGElUvfRpiMXZPDikdUQUsfUo1bSoVDnQfUVZ9eE1lOSkX</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hvC_swb_5KWxiCgG4sr9WO15PJwEVJC8kGmtkXUQLd1VGbjpvV25gCU8NfloYP28_WD5mCUUPI15O</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hNxyXSKo_EVdEIThaXHJuAHhkHzozDxcfPBcOMGklHGVpGQMEfRRdOGchRzBpRQRScENfNDQmT29g</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hzjwh4kOsJUVKEQvs5HlaEnZUKyg9PyMNMiRvczpFeCBjIDEXd39jJ2oRe3NjJWtEJSQ5dGwWfHUw</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hYhu-aK9IBkdIVC-M-fJ5EHQRCCo_egAPMDFLc2VUCyViYEAZJzQZcWwEW3VjYRRDIWUaJmQEXXBs</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hZA3rVEcVBW4OCy3TRlp6OTJOCwN5JQMmdmtJWiheWlgnPEMwYj9LD35eC1YgaUpvZzodDX4LCwkl</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hJCaXMnKAFWxcITxIrpJqO2BkGwErDxMkJEZSXSkgTVV2EQVpNxJfCyohQwhwQwZuNU5TWnxzHAhy</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h2kwUlaY0bURKLEXawRoSE3ZpYyk9AmsMMhhycmskO3BkFX8UIxkiI2gtNXQ1GX1Hfx4jI2d-YyFn</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hgTntbhlqOHtTDRXZBOZHLG9INhYkIz4zKz8kT3IOMUsqPSsuaj8nGyEFMU9_anx_bm9_GHIEbkkq</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h48Gwwok3axd6DkCBeoAUQEZLZXoNIG1fAjp2eVxbYCFUOS5HTm9xI1oJMCQDOC5GEzwmJV5cZiZf</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0haiaPNzJYPkZcKRRJxp1BEWBsMCsrBzgOJEt4JS56ZyJ4HH0YYE8mISsvY3FxHX0RY00hcCt9ZCF3</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hCYjlJ8YmHHZXFTW71oJjIWtQEhsgOxo-L3VXFiYWRxZ5dV9wbycHQHAVEU94dgggbHtVEnAWQxZz</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hdAvDUynlO25LPRKZVlVEOXd4NQM8Ez0mM1lxDW5qZ1ZvXyhrf1N3D284MVc1X35qcl53CD04NQ42</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hF5C-E3GTGRp-VDOT6qRmTUIRF3cJeh9SBjFQKwtVRCsHMFgZQ2YGeV0BRn9RNloeQDIDfF1WQ39X</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hToN5TxCWC0BzTCJrJNl0F08JBS0EYg0IC3gUcVNLUXNfLElDSHkRLwVKBnhbe0oQSSxCIQZNAHgL</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0haZTFDWGaPnVpPxTCIWZBIlV6MBgeETg9EVsmR04-aEYRDyorAgt3Ehw8Zk0XDX8hXQ5zRko7YUVA</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hdwIJtwfjO1h0MxKpFW9ED0h2NTUDHT0QDAUhaVJnYWBZCnRaSgJzPFBjYGgOB3UNSVIhO1czbWBR</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h6N5cFNVOaWEIGkH_bMEWNjRfZwx_NG8pcC51By8ZYwEmLSpnYS4nUyhONVAsLiczZysvAy8YMFcm</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hD2HcR5YzGx11GjLLI5hkSklfFXACNB1VDXpdLFIfEXlQegkZHC4AKQcYQH4PIllNHHRVKABNQi5a</t>
+  </si>
+  <si>
     <t>tongta</t>
   </si>
   <si>
     <t>MG : AmitA</t>
   </si>
   <si>
-    <t>['CH010', 'CK010', 'CN010', 'CD010', 'RC010', 'RA010', 'RB010']</t>
-  </si>
-  <si>
-    <t>['CJ010']</t>
+    <t>wera</t>
   </si>
   <si>
     <t>['']</t>
   </si>
   <si>
+    <t>['CF010', 'CN010']</t>
+  </si>
+  <si>
+    <t>['CN010']</t>
+  </si>
+  <si>
+    <t>['CP010', 'CE010', 'CN010']</t>
+  </si>
+  <si>
     <t>5-11-2020 9:54:16</t>
   </si>
   <si>
@@ -346,6 +1024,21 @@
   </si>
   <si>
     <t>12-11-2020 9:17:8</t>
+  </si>
+  <si>
+    <t>13-11-2020 17:21:57</t>
+  </si>
+  <si>
+    <t>13-11-2020 17:22:15</t>
+  </si>
+  <si>
+    <t>13-11-2020 17:22:31</t>
+  </si>
+  <si>
+    <t>14-11-2020 14:37:36</t>
+  </si>
+  <si>
+    <t>17-11-2020 10:14:48</t>
   </si>
 </sst>
 </file>
@@ -716,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,43 +1467,43 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -821,43 +1514,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -868,43 +1561,43 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -915,43 +1608,43 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O5" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -962,43 +1655,43 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1009,43 +1702,43 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1056,43 +1749,43 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1103,43 +1796,43 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1150,43 +1843,43 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1197,43 +1890,1309 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11" t="s">
+        <v>326</v>
+      </c>
+      <c r="O11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" t="s">
+        <v>323</v>
+      </c>
+      <c r="N12" t="s">
+        <v>326</v>
+      </c>
+      <c r="O12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M13" t="s">
+        <v>323</v>
+      </c>
+      <c r="N13" t="s">
+        <v>326</v>
+      </c>
+      <c r="O13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" t="s">
+        <v>323</v>
+      </c>
+      <c r="N14" t="s">
+        <v>326</v>
+      </c>
+      <c r="O14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M15" t="s">
+        <v>323</v>
+      </c>
+      <c r="N15" t="s">
+        <v>326</v>
+      </c>
+      <c r="O15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M16" t="s">
+        <v>323</v>
+      </c>
+      <c r="N16" t="s">
+        <v>326</v>
+      </c>
+      <c r="O16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" t="s">
+        <v>323</v>
+      </c>
+      <c r="N17" t="s">
+        <v>326</v>
+      </c>
+      <c r="O17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M18" t="s">
+        <v>323</v>
+      </c>
+      <c r="N18" t="s">
+        <v>326</v>
+      </c>
+      <c r="O18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N19" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" t="s">
+        <v>269</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M20" t="s">
+        <v>323</v>
+      </c>
+      <c r="N20" t="s">
+        <v>326</v>
+      </c>
+      <c r="O20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" t="s">
+        <v>270</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" t="s">
+        <v>323</v>
+      </c>
+      <c r="N21" t="s">
+        <v>326</v>
+      </c>
+      <c r="O21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M22" t="s">
+        <v>323</v>
+      </c>
+      <c r="N22" t="s">
+        <v>326</v>
+      </c>
+      <c r="O22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" t="s">
+        <v>323</v>
+      </c>
+      <c r="N23" t="s">
+        <v>326</v>
+      </c>
+      <c r="O23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" t="s">
+        <v>323</v>
+      </c>
+      <c r="N24" t="s">
+        <v>326</v>
+      </c>
+      <c r="O24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>273</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M25" t="s">
+        <v>323</v>
+      </c>
+      <c r="N25" t="s">
+        <v>326</v>
+      </c>
+      <c r="O25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" t="s">
+        <v>323</v>
+      </c>
+      <c r="N26" t="s">
+        <v>326</v>
+      </c>
+      <c r="O26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>275</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M27" t="s">
+        <v>323</v>
+      </c>
+      <c r="N27" t="s">
+        <v>326</v>
+      </c>
+      <c r="O27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M28" t="s">
+        <v>323</v>
+      </c>
+      <c r="N28" t="s">
+        <v>326</v>
+      </c>
+      <c r="O28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M29" t="s">
+        <v>323</v>
+      </c>
+      <c r="N29" t="s">
+        <v>326</v>
+      </c>
+      <c r="O29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M30" t="s">
+        <v>323</v>
+      </c>
+      <c r="N30" t="s">
+        <v>326</v>
+      </c>
+      <c r="O30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M31" t="s">
+        <v>323</v>
+      </c>
+      <c r="N31" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M32" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32" t="s">
+        <v>326</v>
+      </c>
+      <c r="O32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="s">
+        <v>323</v>
+      </c>
+      <c r="N33" t="s">
+        <v>328</v>
+      </c>
+      <c r="O33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="s">
+        <v>323</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="s">
+        <v>323</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s">
+        <v>323</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" t="s">
-        <v>109</v>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="s">
+        <v>323</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="s">
+        <v>325</v>
+      </c>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1248,6 +3207,33 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L10" r:id="rId9"/>
     <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/FromPython.xlsx
+++ b/static/excel/FromPython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1011,7 +1011,10 @@
     <t>['CN010']</t>
   </si>
   <si>
-    <t>['CP010', 'CE010', 'CN010']</t>
+    <t>['CG010']</t>
+  </si>
+  <si>
+    <t>['CG010', 'CI010', 'CJ010', 'CM010']</t>
   </si>
   <si>
     <t>5-11-2020 9:54:16</t>
@@ -1503,7 +1506,7 @@
         <v>326</v>
       </c>
       <c r="O2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1550,7 +1553,7 @@
         <v>327</v>
       </c>
       <c r="O3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1597,7 +1600,7 @@
         <v>326</v>
       </c>
       <c r="O4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1644,7 +1647,7 @@
         <v>326</v>
       </c>
       <c r="O5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1691,7 +1694,7 @@
         <v>326</v>
       </c>
       <c r="O6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1738,7 +1741,7 @@
         <v>326</v>
       </c>
       <c r="O7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1785,7 +1788,7 @@
         <v>326</v>
       </c>
       <c r="O8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1832,7 +1835,7 @@
         <v>326</v>
       </c>
       <c r="O9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1879,7 +1882,7 @@
         <v>326</v>
       </c>
       <c r="O10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1926,7 +1929,7 @@
         <v>326</v>
       </c>
       <c r="O11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1973,7 +1976,7 @@
         <v>326</v>
       </c>
       <c r="O12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2020,7 +2023,7 @@
         <v>326</v>
       </c>
       <c r="O13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2067,7 +2070,7 @@
         <v>326</v>
       </c>
       <c r="O14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2114,7 +2117,7 @@
         <v>326</v>
       </c>
       <c r="O15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2161,7 +2164,7 @@
         <v>326</v>
       </c>
       <c r="O16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2208,7 +2211,7 @@
         <v>326</v>
       </c>
       <c r="O17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2255,7 +2258,7 @@
         <v>326</v>
       </c>
       <c r="O18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2302,7 +2305,7 @@
         <v>326</v>
       </c>
       <c r="O19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2346,7 +2349,7 @@
         <v>326</v>
       </c>
       <c r="O20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2393,7 +2396,7 @@
         <v>326</v>
       </c>
       <c r="O21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2440,7 +2443,7 @@
         <v>326</v>
       </c>
       <c r="O22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2487,7 +2490,7 @@
         <v>326</v>
       </c>
       <c r="O23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2534,7 +2537,7 @@
         <v>326</v>
       </c>
       <c r="O24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2581,7 +2584,7 @@
         <v>326</v>
       </c>
       <c r="O25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2628,7 +2631,7 @@
         <v>326</v>
       </c>
       <c r="O26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2675,7 +2678,7 @@
         <v>326</v>
       </c>
       <c r="O27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2722,7 +2725,7 @@
         <v>326</v>
       </c>
       <c r="O28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2769,7 +2772,7 @@
         <v>326</v>
       </c>
       <c r="O29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2816,7 +2819,7 @@
         <v>326</v>
       </c>
       <c r="O30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2863,7 +2866,7 @@
         <v>326</v>
       </c>
       <c r="O31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2907,10 +2910,10 @@
         <v>323</v>
       </c>
       <c r="N32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2957,7 +2960,7 @@
         <v>328</v>
       </c>
       <c r="O33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3004,7 +3007,7 @@
         <v>326</v>
       </c>
       <c r="O34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3051,7 +3054,7 @@
         <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3098,7 +3101,7 @@
         <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3142,10 +3145,10 @@
         <v>323</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3189,10 +3192,10 @@
         <v>325</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
